--- a/control_plot/控制data.xlsx
+++ b/control_plot/控制data.xlsx
@@ -1,118 +1,464 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\origin files\控制\ans\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8CB833-4CD3-41F6-A1FD-2B7502E05958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30520" windowHeight="15860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>average PRU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准差值</t>
   </si>
   <si>
     <t>标准差1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准差2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Abilene-CFR-RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Abilene-Top-k critical </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Abilene-Top-k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Abilene-ECMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mininet-CFR-RL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mininet-Top-k critical </t>
   </si>
   <si>
     <t>Mininet-Top-k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mininet-ECMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mininet-Top-k critical </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准差值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>average PR_Omega</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REROUTING DISTURBANCE</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>CFR-RL</t>
+  </si>
+  <si>
+    <t>Top-K Critical</t>
+  </si>
+  <si>
+    <t>Top-K</t>
+  </si>
+  <si>
+    <t>Abilene</t>
+  </si>
+  <si>
+    <t>Mininet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -120,30 +466,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +822,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -227,7 +857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -401,231 +1031,228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="A1" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" customWidth="1"/>
+    <col min="1" max="1" width="19.7321428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.97472999999999999</v>
+        <v>0.97473</v>
       </c>
       <c r="C3">
         <f>B3-D3</f>
-        <v>2.1660000000000013E-2</v>
+        <v>0.02166</v>
       </c>
       <c r="D3">
-        <v>0.95306999999999997</v>
+        <v>0.95307</v>
       </c>
       <c r="E3">
         <f>B3+(B3-D3)</f>
         <v>0.99639</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.90253000000000005</v>
+        <v>0.90253</v>
       </c>
       <c r="C4">
         <f>B4-D4</f>
-        <v>3.9710000000000023E-2</v>
+        <v>0.03971</v>
       </c>
       <c r="D4">
-        <v>0.86282000000000003</v>
+        <v>0.86282</v>
       </c>
       <c r="E4">
         <f>B4+(B4-D4)</f>
-        <v>0.94224000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.94224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.80144000000000004</v>
+        <v>0.80144</v>
       </c>
       <c r="C5">
         <f>B5-D5</f>
-        <v>4.3320000000000025E-2</v>
+        <v>0.04332</v>
       </c>
       <c r="D5">
-        <v>0.75812000000000002</v>
+        <v>0.75812</v>
       </c>
       <c r="E5">
         <f>B5+(B5-D5)</f>
-        <v>0.84476000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.84476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.64341000000000004</v>
+        <v>0.64341</v>
       </c>
       <c r="C6">
         <f>B6-D6</f>
-        <v>4.052E-2</v>
+        <v>0.04052</v>
       </c>
       <c r="D6">
-        <v>0.60289000000000004</v>
+        <v>0.60289</v>
       </c>
       <c r="E6">
         <f>B6+(B6-D6)</f>
-        <v>0.68393000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.68393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.94228999999999996</v>
+        <v>0.94229</v>
       </c>
       <c r="C8">
         <f>B8-D8</f>
-        <v>2.8930000000000011E-2</v>
+        <v>0.02893</v>
       </c>
       <c r="D8">
-        <v>0.91335999999999995</v>
+        <v>0.91336</v>
       </c>
       <c r="E8">
         <f>B8+(B8-D8)</f>
-        <v>0.97121999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.97122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.84155000000000002</v>
+        <v>0.84155</v>
       </c>
       <c r="C9">
         <f>B9-D9</f>
-        <v>0.18940999999999997</v>
+        <v>0.18941</v>
       </c>
       <c r="D9">
-        <v>0.65214000000000005</v>
+        <v>0.65214</v>
       </c>
       <c r="E9">
         <f>B9+(B9-D9)</f>
-        <v>1.0309599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>1.03096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.69840999999999998</v>
+        <v>0.69841</v>
       </c>
       <c r="C10">
         <f>B10-D10</f>
-        <v>0.12529000000000001</v>
+        <v>0.12529</v>
       </c>
       <c r="D10">
-        <v>0.57311999999999996</v>
+        <v>0.57312</v>
       </c>
       <c r="E10">
         <f>B10+(B10-D10)</f>
-        <v>0.82369999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.8237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.52498</v>
       </c>
       <c r="C11">
         <f>B11-D11</f>
-        <v>1.2660000000000005E-2</v>
+        <v>0.01266</v>
       </c>
       <c r="D11">
         <v>0.51232</v>
       </c>
       <c r="E11">
         <f>B11+(B11-D11)</f>
-        <v>0.53764000000000001</v>
+        <v>0.53764</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9AA9B0-3A73-4915-A1EA-3C2825C54CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A3:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.2678571428571" customWidth="1"/>
+    <col min="3" max="3" width="9.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -636,166 +1263,233 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.86857</v>
+      </c>
+      <c r="C3">
+        <f>B3-D3</f>
+        <v>0.02667</v>
+      </c>
+      <c r="D3">
+        <v>0.8419</v>
+      </c>
+      <c r="E3">
+        <f>B3+(B3-D3)</f>
+        <v>0.89524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.79821</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">B4-D4</f>
+        <v>0.03711</v>
+      </c>
+      <c r="D4">
+        <v>0.7611</v>
+      </c>
+      <c r="E4">
+        <f>B4+(B4-D4)</f>
+        <v>0.83532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.68952</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.05714</v>
+      </c>
+      <c r="D5">
+        <v>0.63238</v>
+      </c>
+      <c r="E5">
+        <f>B5+(B5-D5)</f>
+        <v>0.74666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.53171</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.031779</v>
+      </c>
+      <c r="D6">
+        <v>0.499931</v>
+      </c>
+      <c r="E6">
+        <f>B6+(B6-D6)</f>
+        <v>0.563489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.89286</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.01524</v>
+      </c>
+      <c r="D8">
+        <v>0.87762</v>
+      </c>
+      <c r="E8">
+        <f>B8+(B8-D8)</f>
+        <v>0.9081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.83429</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.02286</v>
+      </c>
+      <c r="D9">
+        <v>0.81143</v>
+      </c>
+      <c r="E9">
+        <f>B9+(B9-D9)</f>
+        <v>0.85715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.79048</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.04381</v>
+      </c>
+      <c r="D10">
+        <v>0.74667</v>
+      </c>
+      <c r="E10">
+        <f>B10+(B10-D10)</f>
+        <v>0.83429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>0.60421</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.0315300000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.57268</v>
+      </c>
+      <c r="E11">
+        <f>B11+(B11-D11)</f>
+        <v>0.63574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.7857142857143" customWidth="1"/>
+    <col min="2" max="2" width="12.6428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.9375" customWidth="1"/>
+    <col min="4" max="4" width="12.3482142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.86856999999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="D3">
-        <f>B3+(B3-C3)</f>
-        <v>0.89523999999999992</v>
-      </c>
-      <c r="E3">
-        <f>B3-C3</f>
-        <v>2.6669999999999972E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.235</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.358</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.79820999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.7611</v>
-      </c>
-      <c r="D4">
-        <f>B4+(B4-C4)</f>
-        <v>0.83531999999999995</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">B4-C4</f>
-        <v>3.7109999999999976E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.68952000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.63238000000000005</v>
-      </c>
-      <c r="D5">
-        <f>B5+(B5-C5)</f>
-        <v>0.74665999999999999</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>5.7139999999999969E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.53171000000000002</v>
-      </c>
-      <c r="C6">
-        <v>0.49993100000000001</v>
-      </c>
-      <c r="D6">
-        <f>B6+(B6-C6)</f>
-        <v>0.56348900000000002</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>3.1779000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.89285999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.87761999999999996</v>
-      </c>
-      <c r="D8">
-        <f>B8+(B8-C8)</f>
-        <v>0.90810000000000002</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.5240000000000031E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.83428999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.81142999999999998</v>
-      </c>
-      <c r="D9">
-        <f>B9+(B9-C9)</f>
-        <v>0.85714999999999997</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.2859999999999991E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.79047999999999996</v>
-      </c>
-      <c r="C10">
-        <v>0.74666999999999994</v>
-      </c>
-      <c r="D10">
-        <f>B10+(B10-C10)</f>
-        <v>0.83428999999999998</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>4.3810000000000016E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.60421000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.57267999999999997</v>
-      </c>
-      <c r="D11">
-        <f>B11+(B11-C11)</f>
-        <v>0.63574000000000008</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>3.1530000000000058E-2</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.266</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.447</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>